--- a/PEREA, BABEL.xlsx
+++ b/PEREA, BABEL.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79BE650-6F77-476E-A334-D9050AF3C4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C12883-FCDC-4E22-B3F7-538B82788148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
-    <sheet name="CONVERTION" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId3"/>
+    <sheet name="CONVERTION" sheetId="3" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="BALANCE_1" localSheetId="2">[1]!Table1[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="3">[1]!Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
@@ -30,20 +31,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="98">
   <si>
     <t>PERIOD</t>
   </si>
@@ -241,6 +234,102 @@
   </si>
   <si>
     <t>12/16,22,23,26,27</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>1/16-20/2023</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>1/27,30</t>
+  </si>
+  <si>
+    <t>UT(0-0-45)</t>
+  </si>
+  <si>
+    <t>HD(3-0-0)</t>
+  </si>
+  <si>
+    <t>A(7-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-4-11)</t>
+  </si>
+  <si>
+    <t>HD(1-0-0)</t>
+  </si>
+  <si>
+    <t>A(3-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-5-51)</t>
+  </si>
+  <si>
+    <t>HD(1-4-0)</t>
+  </si>
+  <si>
+    <t>A(2-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-2-52)</t>
+  </si>
+  <si>
+    <t>HD(2-0-0)</t>
+  </si>
+  <si>
+    <t>A(4-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-7-3)</t>
+  </si>
+  <si>
+    <t>UT(0-2-39)</t>
+  </si>
+  <si>
+    <t>HD(4-5-0)</t>
+  </si>
+  <si>
+    <t>HD(6-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-17)</t>
+  </si>
+  <si>
+    <t>UT(0-0-21)</t>
+  </si>
+  <si>
+    <t>A(1-0-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-32)</t>
+  </si>
+  <si>
+    <t>HD(-0-4-0)</t>
+  </si>
+  <si>
+    <t>UT(0-0-41)</t>
+  </si>
+  <si>
+    <t>HD(2-4-0)</t>
+  </si>
+  <si>
+    <t>DATE</t>
+  </si>
+  <si>
+    <t>ABSENCE UNDERTIME W/O PAY</t>
+  </si>
+  <si>
+    <t>ABSENT</t>
+  </si>
+  <si>
+    <t>HALFDAY</t>
   </si>
 </sst>
 </file>
@@ -483,7 +572,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,11 +750,86 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="21">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -2345,25 +2509,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K149" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19" tableBorderDxfId="18" totalsRowBorderDxfId="17">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="10">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="8">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2371,6 +2535,17 @@
       <x14:table altText="BALANCE_2"/>
     </ext>
   </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1DE92F38-291D-4E7C-B801-18889BDD3AA9}" name="Table2" displayName="Table2" ref="A7:C21" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{5CD3685B-A25C-4698-BA93-3694205691CC}" name="DATE" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{9A0CE429-7AB9-41A4-8397-1C50FCC8B607}" name="REMARKS" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{86070DEC-3270-4AC6-B510-22420D5873D5}" name="ABSENCE UNDERTIME W/O PAY" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2692,12 +2867,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K130"/>
+  <dimension ref="A2:K149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A73" activePane="bottomLeft"/>
-      <selection activeCell="F4" sqref="F4:G4"/>
-      <selection pane="bottomLeft" activeCell="B84" sqref="B84"/>
+      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
+      <selection activeCell="A2" sqref="A2:G4"/>
+      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2858,7 +3033,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>61.247</v>
+        <v>0.44200000000002149</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2868,7 +3043,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>101.417</v>
+        <v>100.667</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4193,11 +4368,15 @@
       <c r="A73" s="40">
         <v>44621</v>
       </c>
-      <c r="B73" s="20"/>
+      <c r="B73" s="20" t="s">
+        <v>74</v>
+      </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
-      <c r="D73" s="39"/>
+      <c r="D73" s="39">
+        <v>0.52300000000000002</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13">
@@ -4210,19 +4389,19 @@
       <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40">
-        <v>44652</v>
-      </c>
-      <c r="B74" s="20"/>
-      <c r="C74" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D74" s="39"/>
+      <c r="A74" s="40"/>
+      <c r="B74" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="39">
+        <v>1</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
@@ -4230,19 +4409,19 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40">
-        <v>44682</v>
-      </c>
-      <c r="B75" s="20"/>
-      <c r="C75" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D75" s="39"/>
+      <c r="A75" s="40"/>
+      <c r="B75" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="39">
+        <v>3</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H75" s="39"/>
       <c r="I75" s="9"/>
@@ -4251,13 +4430,17 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
-        <v>44713</v>
-      </c>
-      <c r="B76" s="20"/>
+        <v>44652</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="C76" s="13">
         <v>1.25</v>
       </c>
-      <c r="D76" s="39"/>
+      <c r="D76" s="39">
+        <v>0.73099999999999998</v>
+      </c>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13">
@@ -4270,19 +4453,19 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40">
-        <v>44743</v>
-      </c>
-      <c r="B77" s="20"/>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D77" s="39"/>
+      <c r="A77" s="40"/>
+      <c r="B77" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="39">
+        <v>1.5</v>
+      </c>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
@@ -4290,19 +4473,19 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40">
-        <v>44774</v>
-      </c>
-      <c r="B78" s="20"/>
-      <c r="C78" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D78" s="39"/>
+      <c r="A78" s="40"/>
+      <c r="B78" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="39">
+        <v>2</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
@@ -4311,15 +4494,17 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>44805</v>
+        <v>44682</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="C79" s="13">
         <v>1.25</v>
       </c>
-      <c r="D79" s="39"/>
+      <c r="D79" s="39">
+        <v>0.35799999999999998</v>
+      </c>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13">
@@ -4329,17 +4514,17 @@
       <c r="H79" s="39"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="49">
-        <v>44809</v>
-      </c>
+      <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="C80" s="13"/>
-      <c r="D80" s="39"/>
+      <c r="D80" s="39">
+        <v>2</v>
+      </c>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13" t="str">
@@ -4349,24 +4534,22 @@
       <c r="H80" s="39"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="49">
-        <v>44805</v>
-      </c>
+      <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40">
-        <v>44835</v>
-      </c>
-      <c r="B81" s="20"/>
-      <c r="C81" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D81" s="39"/>
+      <c r="A81" s="40"/>
+      <c r="B81" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="39">
+        <v>4</v>
+      </c>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
-      <c r="G81" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
@@ -4375,13 +4558,17 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B82" s="20"/>
+        <v>44713</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>83</v>
+      </c>
       <c r="C82" s="13">
         <v>1.25</v>
       </c>
-      <c r="D82" s="39"/>
+      <c r="D82" s="39">
+        <v>0.88100000000000001</v>
+      </c>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
       <c r="G82" s="13">
@@ -4394,36 +4581,34 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A83" s="40"/>
       <c r="B83" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C83" s="13">
-        <v>1.25</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C83" s="13"/>
       <c r="D83" s="39">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20" t="s">
+        <v>79</v>
+      </c>
       <c r="C84" s="13"/>
-      <c r="D84" s="39"/>
+      <c r="D84" s="39">
+        <v>2</v>
+      </c>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
@@ -4436,15 +4621,23 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="39"/>
+      <c r="A85" s="40">
+        <v>44743</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D85" s="39">
+        <v>0.33100000000000002</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
@@ -4453,9 +4646,13 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
-      <c r="B86" s="20"/>
+      <c r="B86" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C86" s="13"/>
-      <c r="D86" s="39"/>
+      <c r="D86" s="39">
+        <v>4.5</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
       <c r="G86" s="13" t="str">
@@ -4469,9 +4666,13 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
-      <c r="B87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>76</v>
+      </c>
       <c r="C87" s="13"/>
-      <c r="D87" s="39"/>
+      <c r="D87" s="39">
+        <v>3</v>
+      </c>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13" t="str">
@@ -4484,15 +4685,23 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="39"/>
+      <c r="A88" s="40">
+        <v>44774</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D88" s="39">
+        <v>3.5000000000000017E-2</v>
+      </c>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -4501,9 +4710,13 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
-      <c r="B89" s="20"/>
+      <c r="B89" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C89" s="13"/>
-      <c r="D89" s="39"/>
+      <c r="D89" s="39">
+        <v>6</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
       <c r="G89" s="13" t="str">
@@ -4517,9 +4730,13 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
-      <c r="B90" s="20"/>
+      <c r="B90" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C90" s="13"/>
-      <c r="D90" s="39"/>
+      <c r="D90" s="39">
+        <v>4</v>
+      </c>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
@@ -4532,24 +4749,34 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="13"/>
+      <c r="A91" s="40">
+        <v>44805</v>
+      </c>
+      <c r="B91" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C91" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D91" s="39"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
-      <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G91" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="20"/>
+      <c r="K91" s="49">
+        <v>44809</v>
+      </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
-      <c r="B92" s="20"/>
+      <c r="B92" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
       <c r="E92" s="9"/>
@@ -4561,13 +4788,19 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="49">
+        <v>44805</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
-      <c r="B93" s="20"/>
+      <c r="B93" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C93" s="13"/>
-      <c r="D93" s="39"/>
+      <c r="D93" s="39">
+        <v>4.4000000000000004E-2</v>
+      </c>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
       <c r="G93" s="13" t="str">
@@ -4577,13 +4810,17 @@
       <c r="H93" s="39"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="20"/>
+      <c r="K93" s="49"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
-      <c r="B94" s="20"/>
+      <c r="B94" s="20" t="s">
+        <v>72</v>
+      </c>
       <c r="C94" s="13"/>
-      <c r="D94" s="39"/>
+      <c r="D94" s="39">
+        <v>3</v>
+      </c>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
       <c r="G94" s="13" t="str">
@@ -4593,13 +4830,17 @@
       <c r="H94" s="39"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20"/>
+      <c r="K94" s="49"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
-      <c r="B95" s="20"/>
+      <c r="B95" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="C95" s="13"/>
-      <c r="D95" s="39"/>
+      <c r="D95" s="39">
+        <v>1</v>
+      </c>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
       <c r="G95" s="13" t="str">
@@ -4609,18 +4850,26 @@
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="49"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="39"/>
+      <c r="A96" s="40">
+        <v>44835</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C96" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D96" s="39">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
-      <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G96" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
@@ -4629,9 +4878,13 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
-      <c r="B97" s="20"/>
+      <c r="B97" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C97" s="13"/>
-      <c r="D97" s="39"/>
+      <c r="D97" s="39">
+        <v>0.5</v>
+      </c>
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
       <c r="G97" s="13" t="str">
@@ -4645,9 +4898,13 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
-      <c r="B98" s="20"/>
+      <c r="B98" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C98" s="13"/>
-      <c r="D98" s="39"/>
+      <c r="D98" s="39">
+        <v>4</v>
+      </c>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
       <c r="G98" s="13" t="str">
@@ -4660,15 +4917,23 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
-      <c r="B99" s="20"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="39"/>
+      <c r="A99" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C99" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D99" s="39">
+        <v>8.500000000000002E-2</v>
+      </c>
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
-      <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G99" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H99" s="39"/>
       <c r="I99" s="9"/>
@@ -4677,9 +4942,13 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
-      <c r="B100" s="20"/>
+      <c r="B100" s="20" t="s">
+        <v>93</v>
+      </c>
       <c r="C100" s="13"/>
-      <c r="D100" s="39"/>
+      <c r="D100" s="39">
+        <v>2.5</v>
+      </c>
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13" t="str">
@@ -4693,9 +4962,13 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
-      <c r="B101" s="20"/>
+      <c r="B101" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C101" s="13"/>
-      <c r="D101" s="39"/>
+      <c r="D101" s="39">
+        <v>7</v>
+      </c>
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
@@ -4708,23 +4981,35 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
-      <c r="B102" s="20"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="39"/>
+      <c r="A102" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C102" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D102" s="39">
+        <v>5</v>
+      </c>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
-      <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G102" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
+      <c r="K102" s="20" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="48" t="s">
+        <v>66</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -4740,24 +5025,36 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="39"/>
+      <c r="A104" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B104" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C104" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D104" s="39">
+        <v>5</v>
+      </c>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G104" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
       <c r="J104" s="11"/>
-      <c r="K104" s="20"/>
+      <c r="K104" s="20" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
-      <c r="B105" s="20"/>
+      <c r="B105" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
       <c r="E105" s="9"/>
@@ -4766,10 +5063,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H105" s="39"/>
+      <c r="H105" s="39">
+        <v>2</v>
+      </c>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
+      <c r="K105" s="20" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
@@ -5156,20 +5457,324 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="15"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
+      <c r="A130" s="40"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="13"/>
+      <c r="D130" s="39"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
+      <c r="F130" s="20"/>
+      <c r="G130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="39"/>
       <c r="I130" s="9"/>
-      <c r="J130" s="12"/>
-      <c r="K130" s="15"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
+      <c r="E131" s="9"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A132" s="40"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="13"/>
+      <c r="D132" s="39"/>
+      <c r="E132" s="9"/>
+      <c r="F132" s="20"/>
+      <c r="G132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H132" s="39"/>
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="20"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A133" s="40"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="13"/>
+      <c r="D133" s="39"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="20"/>
+      <c r="G133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="39"/>
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="20"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A134" s="40"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="39"/>
+      <c r="I134" s="9"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="40"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="39"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="40"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="40"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="13"/>
+      <c r="D139" s="39"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="39"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="40"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="39"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="39"/>
+      <c r="I140" s="9"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="20"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="40"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="13"/>
+      <c r="D141" s="39"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="39"/>
+      <c r="I141" s="9"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="20"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="40"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="13"/>
+      <c r="D142" s="39"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="39"/>
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="40"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="13"/>
+      <c r="D143" s="39"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="39"/>
+      <c r="I143" s="9"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="40"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="13"/>
+      <c r="D144" s="39"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="39"/>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="40"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="13"/>
+      <c r="D145" s="39"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="39"/>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="20"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="40"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="39"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="39"/>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="20"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="40"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="39"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="39"/>
+      <c r="I147" s="9"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="20"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="40"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="39"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="41"/>
+      <c r="B149" s="15"/>
+      <c r="C149" s="42"/>
+      <c r="D149" s="43"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="43"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5213,11 +5818,398 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4038B1A8-3095-4F9B-BE3E-E81C19AAD6F3}">
+  <dimension ref="A1:E51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="26.21875" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="67" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="64" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="61"/>
+      <c r="C2" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="57"/>
+      <c r="E2" s="52"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="64" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="52"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="63" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" s="63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="68">
+        <v>44903</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="68">
+        <v>44911</v>
+      </c>
+      <c r="B9" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="68">
+        <v>44914</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="68">
+        <v>44916</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="68">
+        <v>44917</v>
+      </c>
+      <c r="B12" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="68">
+        <v>44918</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="68">
+        <v>44922</v>
+      </c>
+      <c r="B14" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="C14" s="62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="62"/>
+      <c r="B15" s="62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C15" s="62">
+        <v>9.4E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="68">
+        <v>44904</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="68">
+        <v>44909</v>
+      </c>
+      <c r="B17" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="68">
+        <v>44910</v>
+      </c>
+      <c r="B18" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="68">
+        <v>44915</v>
+      </c>
+      <c r="B19" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="68">
+        <v>44923</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="68">
+        <v>44924</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="62">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="62"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="62"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="62"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="62"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="62"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="62"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="62"/>
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="62"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="62"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="62"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="62"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="62"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="62"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="62"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="62"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="62"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="62"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="62"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="62"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="62"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="62"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="62"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="62"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="62"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="62"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="62"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="62"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="62"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="62"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="62"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="62"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="62"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="62"/>
+      <c r="B48" s="62"/>
+      <c r="C48" s="62"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="62"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="62"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="62"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="62"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:C3" xr:uid="{1197402B-01E9-440A-8434-A5822C5A3B6F}">
+      <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1" xr:uid="{27F36652-400A-4001-AAE9-A65E189984C9}">
+      <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5285,10 +6277,12 @@
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="11">
+        <v>45</v>
+      </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0</v>
+        <v>9.4E-2</v>
       </c>
       <c r="J3" s="47"/>
       <c r="K3" s="35">

--- a/PEREA, BABEL.xlsx
+++ b/PEREA, BABEL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C12883-FCDC-4E22-B3F7-538B82788148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B9436A-0087-4FDF-BA53-44217DC0EB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="99">
   <si>
     <t>PERIOD</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>HALFDAY</t>
+  </si>
+  <si>
+    <t>TOTAL NO:</t>
   </si>
 </sst>
 </file>
@@ -402,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -568,11 +571,108 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -717,6 +817,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -750,28 +854,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -789,16 +896,16 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
+        <top style="thin">
           <color indexed="64"/>
-        </bottom>
+        </top>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <top style="thin">
+        <bottom style="thin">
           <color indexed="64"/>
-        </top>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -2539,7 +2646,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1DE92F38-291D-4E7C-B801-18889BDD3AA9}" name="Table2" displayName="Table2" ref="A7:C21" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1DE92F38-291D-4E7C-B801-18889BDD3AA9}" name="Table2" displayName="Table2" ref="A7:C21" totalsRowShown="0" headerRowDxfId="5" headerRowBorderDxfId="4" tableBorderDxfId="3">
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{5CD3685B-A25C-4698-BA93-3694205691CC}" name="DATE" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{9A0CE429-7AB9-41A4-8397-1C50FCC8B607}" name="REMARKS" dataDxfId="1"/>
@@ -2869,10 +2976,10 @@
   </sheetPr>
   <dimension ref="A2:K149"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A70" activePane="bottomLeft"/>
-      <selection activeCell="A2" sqref="A2:G4"/>
-      <selection pane="bottomLeft" activeCell="I78" sqref="I78"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A65" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2894,62 +3001,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="51"/>
+      <c r="C2" s="53"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="55"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="55"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="51"/>
+      <c r="C4" s="53"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -2975,18 +3082,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50" t="s">
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -5821,367 +5928,380 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4038B1A8-3095-4F9B-BE3E-E81C19AAD6F3}">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="26.21875" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="64" t="s">
         <v>42</v>
       </c>
       <c r="C1" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="66" t="s">
+      <c r="B2" s="50"/>
+      <c r="C2" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="57"/>
-      <c r="E2" s="52"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="70"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="54" t="s">
         <v>44</v>
       </c>
-      <c r="E3" s="52"/>
+      <c r="E3" s="70"/>
+    </row>
+    <row r="4" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="5" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="68">
+      <c r="A8" s="51">
         <v>44903</v>
       </c>
-      <c r="B8" s="62" t="s">
+      <c r="B8" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C8" s="62">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="68">
+      <c r="A9" s="51">
         <v>44911</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C9" s="62">
+      <c r="C9" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="68">
+      <c r="A10" s="51">
         <v>44914</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="62">
+      <c r="C10" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="68">
+      <c r="A11" s="51">
         <v>44916</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="62">
+      <c r="C11" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="68">
+      <c r="A12" s="51">
         <v>44917</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="62">
+      <c r="C12" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="68">
+      <c r="A13" s="51">
         <v>44918</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="62">
+      <c r="C13" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="68">
+      <c r="A14" s="51">
         <v>44922</v>
       </c>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="62">
+      <c r="C14" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="62"/>
-      <c r="B15" s="62" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="62">
+      <c r="C15" s="1">
         <v>9.4E-2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="68">
+      <c r="A16" s="51">
         <v>44904</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C16" s="62">
+      <c r="C16" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="68">
+      <c r="A17" s="51">
         <v>44909</v>
       </c>
-      <c r="B17" s="62" t="s">
+      <c r="B17" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="62">
+      <c r="C17" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="68">
+      <c r="A18" s="51">
         <v>44910</v>
       </c>
-      <c r="B18" s="62" t="s">
+      <c r="B18" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="62">
+      <c r="C18" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="68">
+      <c r="A19" s="51">
         <v>44915</v>
       </c>
-      <c r="B19" s="62" t="s">
+      <c r="B19" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="62">
+      <c r="C19" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="68">
+      <c r="A20" s="51">
         <v>44923</v>
       </c>
-      <c r="B20" s="62" t="s">
+      <c r="B20" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="62">
+      <c r="C20" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="68">
+      <c r="A21" s="51">
         <v>44924</v>
       </c>
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="62">
+      <c r="C21" s="1">
         <v>0.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="62"/>
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="62"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="11">
+        <f>SUM(Table2[ABSENCE UNDERTIME W/O PAY])</f>
+        <v>10.094000000000001</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="62"/>
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="62"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="62"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="62"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="62"/>
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="62"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="62"/>
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="62"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="62"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="62"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="62"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="62"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="62"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="62"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="62"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="62"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="62"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="62"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="62"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="62"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="62"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="62"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="62"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="62"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="62"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="62"/>
-      <c r="B45" s="62"/>
-      <c r="C45" s="62"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="62"/>
-      <c r="B46" s="62"/>
-      <c r="C46" s="62"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="62"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="62"/>
-      <c r="B48" s="62"/>
-      <c r="C48" s="62"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="62"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="62"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="62"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="62"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="62"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6197,9 +6317,10 @@
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6209,7 +6330,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6227,17 +6348,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="J1" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -6318,12 +6439,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="46"/>
-      <c r="I6" s="60" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
